--- a/江西大学投档线-文件转换_数据清洗/output_excel/二本_三校文理.xlsx
+++ b/江西大学投档线-文件转换_数据清洗/output_excel/二本_三校文理.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,26 @@
           <t>最低投档排名</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>省份</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>城市</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>层次</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -487,10 +507,8 @@
           <t>三校文理</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8201</t>
-        </is>
+      <c r="C2" t="n">
+        <v>8201</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
@@ -500,9 +518,27 @@
       <c r="E2" t="n">
         <v>511</v>
       </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>337</t>
+      <c r="F2" s="4" t="n">
+        <v>337</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>公办</t>
         </is>
       </c>
     </row>
@@ -515,10 +551,8 @@
           <t>三校文理</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>8211</t>
-        </is>
+      <c r="C3" t="n">
+        <v>8211</v>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
@@ -528,9 +562,27 @@
       <c r="E3" t="n">
         <v>508</v>
       </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>420</t>
+      <c r="F3" s="4" t="n">
+        <v>420</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>公办</t>
         </is>
       </c>
     </row>
@@ -543,10 +595,8 @@
           <t>三校文理</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8220</t>
-        </is>
+      <c r="C4" t="n">
+        <v>8220</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
@@ -556,9 +606,27 @@
       <c r="E4" t="n">
         <v>502</v>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>568</t>
+      <c r="F4" s="4" t="n">
+        <v>568</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>民办</t>
         </is>
       </c>
     </row>
@@ -571,10 +639,8 @@
           <t>三校文理</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8219</t>
-        </is>
+      <c r="C5" t="n">
+        <v>8219</v>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
@@ -584,9 +650,27 @@
       <c r="E5" t="n">
         <v>501</v>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>579</t>
+      <c r="F5" s="4" t="n">
+        <v>579</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>民办</t>
         </is>
       </c>
     </row>
@@ -599,10 +683,8 @@
           <t>三校文理</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8237</t>
-        </is>
+      <c r="C6" t="n">
+        <v>8237</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
@@ -612,9 +694,27 @@
       <c r="E6" t="n">
         <v>498</v>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>680</t>
+      <c r="F6" s="4" t="n">
+        <v>680</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>民办</t>
         </is>
       </c>
     </row>
@@ -627,10 +727,8 @@
           <t>三校文理</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8238</t>
-        </is>
+      <c r="C7" t="n">
+        <v>8238</v>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
@@ -640,9 +738,27 @@
       <c r="E7" t="n">
         <v>498</v>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>689</t>
+      <c r="F7" s="4" t="n">
+        <v>689</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>民办</t>
         </is>
       </c>
     </row>
@@ -655,10 +771,8 @@
           <t>三校文理</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8240</t>
-        </is>
+      <c r="C8" t="n">
+        <v>8240</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
@@ -668,9 +782,27 @@
       <c r="E8" t="n">
         <v>497</v>
       </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>719</t>
+      <c r="F8" s="4" t="n">
+        <v>719</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>民办</t>
         </is>
       </c>
     </row>
